--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.802361666666667</v>
+        <v>7.286001333333334</v>
       </c>
       <c r="H2">
-        <v>11.407085</v>
+        <v>21.858004</v>
       </c>
       <c r="I2">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="J2">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>25.64592688564056</v>
+        <v>45.94440236379467</v>
       </c>
       <c r="R2">
-        <v>230.813341970765</v>
+        <v>413.499621274152</v>
       </c>
       <c r="S2">
-        <v>0.0003485007740956176</v>
+        <v>0.0008113615299776451</v>
       </c>
       <c r="T2">
-        <v>0.0003485007740956178</v>
+        <v>0.0008113615299776451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.802361666666667</v>
+        <v>7.286001333333334</v>
       </c>
       <c r="H3">
-        <v>11.407085</v>
+        <v>21.858004</v>
       </c>
       <c r="I3">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="J3">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>694.051471856444</v>
+        <v>1329.926080856243</v>
       </c>
       <c r="R3">
-        <v>6246.463246707995</v>
+        <v>11969.33472770619</v>
       </c>
       <c r="S3">
-        <v>0.009431418731042373</v>
+        <v>0.02348601362091095</v>
       </c>
       <c r="T3">
-        <v>0.009431418731042375</v>
+        <v>0.02348601362091095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.802361666666667</v>
+        <v>7.286001333333334</v>
       </c>
       <c r="H4">
-        <v>11.407085</v>
+        <v>21.858004</v>
       </c>
       <c r="I4">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="J4">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>947.2934433660172</v>
+        <v>928.2102892598574</v>
       </c>
       <c r="R4">
-        <v>8525.640990294154</v>
+        <v>8353.892603338716</v>
       </c>
       <c r="S4">
-        <v>0.01287270683492454</v>
+        <v>0.0163918580216062</v>
       </c>
       <c r="T4">
-        <v>0.01287270683492454</v>
+        <v>0.0163918580216062</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.802361666666667</v>
+        <v>7.286001333333334</v>
       </c>
       <c r="H5">
-        <v>11.407085</v>
+        <v>21.858004</v>
       </c>
       <c r="I5">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="J5">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>66.3909128089489</v>
+        <v>141.5232996133351</v>
       </c>
       <c r="R5">
-        <v>597.5182152805401</v>
+        <v>1273.709696520016</v>
       </c>
       <c r="S5">
-        <v>0.0009021816450622488</v>
+        <v>0.002499250289350731</v>
       </c>
       <c r="T5">
-        <v>0.0009021816450622489</v>
+        <v>0.002499250289350731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.802361666666667</v>
+        <v>7.286001333333334</v>
       </c>
       <c r="H6">
-        <v>11.407085</v>
+        <v>21.858004</v>
       </c>
       <c r="I6">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="J6">
-        <v>0.03321354408244908</v>
+        <v>0.05982828033080036</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>710.779596982224</v>
+        <v>942.2501491044758</v>
       </c>
       <c r="R6">
-        <v>6397.016372840016</v>
+        <v>8480.25134194028</v>
       </c>
       <c r="S6">
-        <v>0.009658736097324301</v>
+        <v>0.01663979686895484</v>
       </c>
       <c r="T6">
-        <v>0.009658736097324301</v>
+        <v>0.01663979686895484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>278.210778</v>
       </c>
       <c r="I7">
-        <v>0.8100549736690359</v>
+        <v>0.7615001084835589</v>
       </c>
       <c r="J7">
-        <v>0.8100549736690359</v>
+        <v>0.761500108483559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>625.4861142338447</v>
+        <v>584.784773869396</v>
       </c>
       <c r="R7">
-        <v>5629.375028104602</v>
+        <v>5263.062964824564</v>
       </c>
       <c r="S7">
-        <v>0.008499688701779994</v>
+        <v>0.01032708761945285</v>
       </c>
       <c r="T7">
-        <v>0.008499688701779995</v>
+        <v>0.01032708761945285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>278.210778</v>
       </c>
       <c r="I8">
-        <v>0.8100549736690359</v>
+        <v>0.7615001084835589</v>
       </c>
       <c r="J8">
-        <v>0.8100549736690359</v>
+        <v>0.761500108483559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>16927.42711720184</v>
@@ -948,10 +948,10 @@
         <v>152346.8440548166</v>
       </c>
       <c r="S8">
-        <v>0.2300256676273624</v>
+        <v>0.2989322410954007</v>
       </c>
       <c r="T8">
-        <v>0.2300256676273624</v>
+        <v>0.2989322410954007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>278.210778</v>
       </c>
       <c r="I9">
-        <v>0.8100549736690359</v>
+        <v>0.7615001084835589</v>
       </c>
       <c r="J9">
-        <v>0.8100549736690359</v>
+        <v>0.761500108483559</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>23103.82064069467</v>
+        <v>11814.34987030792</v>
       </c>
       <c r="R9">
-        <v>207934.3857662521</v>
+        <v>106329.1488327713</v>
       </c>
       <c r="S9">
-        <v>0.3139562634547102</v>
+        <v>0.2086371460567306</v>
       </c>
       <c r="T9">
-        <v>0.3139562634547103</v>
+        <v>0.2086371460567306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>278.210778</v>
       </c>
       <c r="I10">
-        <v>0.8100549736690359</v>
+        <v>0.7615001084835589</v>
       </c>
       <c r="J10">
-        <v>0.8100549736690359</v>
+        <v>0.761500108483559</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>1619.227655856675</v>
+        <v>1801.322174273235</v>
       </c>
       <c r="R10">
-        <v>14573.04890271007</v>
+        <v>16211.89956845911</v>
       </c>
       <c r="S10">
-        <v>0.02200357561726664</v>
+        <v>0.0318106981505261</v>
       </c>
       <c r="T10">
-        <v>0.02200357561726664</v>
+        <v>0.0318106981505261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>278.210778</v>
       </c>
       <c r="I11">
-        <v>0.8100549736690359</v>
+        <v>0.7615001084835589</v>
       </c>
       <c r="J11">
-        <v>0.8100549736690359</v>
+        <v>0.761500108483559</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>17335.41432039395</v>
+        <v>11993.05055726827</v>
       </c>
       <c r="R11">
-        <v>156018.7288835455</v>
+        <v>107937.4550154145</v>
       </c>
       <c r="S11">
-        <v>0.2355697782679166</v>
+        <v>0.2117929355614487</v>
       </c>
       <c r="T11">
-        <v>0.2355697782679166</v>
+        <v>0.2117929355614487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.844577333333333</v>
+        <v>3.054360666666666</v>
       </c>
       <c r="H12">
-        <v>5.533732</v>
+        <v>9.163081999999999</v>
       </c>
       <c r="I12">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="J12">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>12.44118775977644</v>
+        <v>19.26032799245733</v>
       </c>
       <c r="R12">
-        <v>111.970689837988</v>
+        <v>173.342951932116</v>
       </c>
       <c r="S12">
-        <v>0.0001690624629901233</v>
+        <v>0.0003401304268601387</v>
       </c>
       <c r="T12">
-        <v>0.0001690624629901233</v>
+        <v>0.0003401304268601387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.844577333333333</v>
+        <v>3.054360666666666</v>
       </c>
       <c r="H13">
-        <v>5.533732</v>
+        <v>9.163081999999999</v>
       </c>
       <c r="I13">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="J13">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>336.6938038472671</v>
+        <v>557.5175909394283</v>
       </c>
       <c r="R13">
-        <v>3030.244234625404</v>
+        <v>5017.658318454854</v>
       </c>
       <c r="S13">
-        <v>0.004575309435966205</v>
+        <v>0.009845559030070812</v>
       </c>
       <c r="T13">
-        <v>0.004575309435966206</v>
+        <v>0.009845559030070812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.844577333333333</v>
+        <v>3.054360666666666</v>
       </c>
       <c r="H14">
-        <v>5.533732</v>
+        <v>9.163081999999999</v>
       </c>
       <c r="I14">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="J14">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>459.5449267665418</v>
+        <v>389.1145318544087</v>
       </c>
       <c r="R14">
-        <v>4135.904340898875</v>
+        <v>3502.030786689678</v>
       </c>
       <c r="S14">
-        <v>0.006244725075603507</v>
+        <v>0.006871621909499849</v>
       </c>
       <c r="T14">
-        <v>0.006244725075603507</v>
+        <v>0.00687162190949985</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.844577333333333</v>
+        <v>3.054360666666666</v>
       </c>
       <c r="H15">
-        <v>5.533732</v>
+        <v>9.163081999999999</v>
       </c>
       <c r="I15">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="J15">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>32.20713431346311</v>
+        <v>59.32790566181421</v>
       </c>
       <c r="R15">
-        <v>289.864208821168</v>
+        <v>533.951150956328</v>
       </c>
       <c r="S15">
-        <v>0.0004376605801651875</v>
+        <v>0.001047709358084319</v>
       </c>
       <c r="T15">
-        <v>0.0004376605801651875</v>
+        <v>0.001047709358084319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.844577333333333</v>
+        <v>3.054360666666666</v>
       </c>
       <c r="H16">
-        <v>5.533732</v>
+        <v>9.163081999999999</v>
       </c>
       <c r="I16">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="J16">
-        <v>0.0161123417351987</v>
+        <v>0.02508058094371795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>344.8088447458431</v>
+        <v>395.0001738839711</v>
       </c>
       <c r="R16">
-        <v>3103.279602712588</v>
+        <v>3555.00156495574</v>
       </c>
       <c r="S16">
-        <v>0.004685584180473678</v>
+        <v>0.006975560219202833</v>
       </c>
       <c r="T16">
-        <v>0.004685584180473678</v>
+        <v>0.006975560219202833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.079226</v>
+        <v>12.594748</v>
       </c>
       <c r="H17">
-        <v>33.237678</v>
+        <v>37.784244</v>
       </c>
       <c r="I17">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="J17">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>74.72645814741134</v>
+        <v>79.420541296808</v>
       </c>
       <c r="R17">
-        <v>672.538123326702</v>
+        <v>714.7848716712721</v>
       </c>
       <c r="S17">
-        <v>0.001015452809560101</v>
+        <v>0.001402538036908066</v>
       </c>
       <c r="T17">
-        <v>0.001015452809560101</v>
+        <v>0.001402538036908066</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.079226</v>
+        <v>12.594748</v>
       </c>
       <c r="H18">
-        <v>33.237678</v>
+        <v>37.784244</v>
       </c>
       <c r="I18">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="J18">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>2022.309760731207</v>
+        <v>2298.940541004386</v>
       </c>
       <c r="R18">
-        <v>18200.78784658087</v>
+        <v>20690.46486903947</v>
       </c>
       <c r="S18">
-        <v>0.02748103120696961</v>
+        <v>0.04059845854359909</v>
       </c>
       <c r="T18">
-        <v>0.02748103120696962</v>
+        <v>0.04059845854359908</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.079226</v>
+        <v>12.594748</v>
       </c>
       <c r="H19">
-        <v>33.237678</v>
+        <v>37.784244</v>
       </c>
       <c r="I19">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="J19">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>2760.19986193764</v>
+        <v>1604.525465943964</v>
       </c>
       <c r="R19">
-        <v>24841.79875743876</v>
+        <v>14440.72919349568</v>
       </c>
       <c r="S19">
-        <v>0.03750817012125543</v>
+        <v>0.02833533945284876</v>
       </c>
       <c r="T19">
-        <v>0.03750817012125543</v>
+        <v>0.02833533945284876</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.079226</v>
+        <v>12.594748</v>
       </c>
       <c r="H20">
-        <v>33.237678</v>
+        <v>37.784244</v>
       </c>
       <c r="I20">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="J20">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>193.4481755917414</v>
+        <v>244.6404019449973</v>
       </c>
       <c r="R20">
-        <v>1741.033580325672</v>
+        <v>2201.763617504976</v>
       </c>
       <c r="S20">
-        <v>0.002628754236168952</v>
+        <v>0.004320261024286511</v>
       </c>
       <c r="T20">
-        <v>0.002628754236168953</v>
+        <v>0.00432026102428651</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.079226</v>
+        <v>12.594748</v>
       </c>
       <c r="H21">
-        <v>33.237678</v>
+        <v>37.784244</v>
       </c>
       <c r="I21">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="J21">
-        <v>0.09677679121802353</v>
+        <v>0.1034205292541515</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>2071.051751912511</v>
+        <v>1628.795087730787</v>
       </c>
       <c r="R21">
-        <v>18639.4657672126</v>
+        <v>14659.15578957708</v>
       </c>
       <c r="S21">
-        <v>0.02814338284406943</v>
+        <v>0.02876393219650914</v>
       </c>
       <c r="T21">
-        <v>0.02814338284406943</v>
+        <v>0.02876393219650913</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>5.019171333333333</v>
+        <v>6.109858666666667</v>
       </c>
       <c r="H22">
-        <v>15.057514</v>
+        <v>18.329576</v>
       </c>
       <c r="I22">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="J22">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>33.85298725515845</v>
+        <v>38.52782783376534</v>
       </c>
       <c r="R22">
-        <v>304.676885296426</v>
+        <v>346.750450503888</v>
       </c>
       <c r="S22">
-        <v>0.0004600259649994368</v>
+        <v>0.0006803875059772852</v>
       </c>
       <c r="T22">
-        <v>0.0004600259649994368</v>
+        <v>0.0006803875059772852</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>5.019171333333333</v>
+        <v>6.109858666666667</v>
       </c>
       <c r="H23">
-        <v>15.057514</v>
+        <v>18.329576</v>
       </c>
       <c r="I23">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="J23">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>916.1577873925733</v>
+        <v>1115.242781245564</v>
       </c>
       <c r="R23">
-        <v>8245.420086533159</v>
+        <v>10037.18503121007</v>
       </c>
       <c r="S23">
-        <v>0.0124496065017954</v>
+        <v>0.01969478418987948</v>
       </c>
       <c r="T23">
-        <v>0.0124496065017954</v>
+        <v>0.01969478418987948</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>5.019171333333333</v>
+        <v>6.109858666666667</v>
       </c>
       <c r="H24">
-        <v>15.057514</v>
+        <v>18.329576</v>
       </c>
       <c r="I24">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="J24">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>1250.440781811656</v>
+        <v>778.3739558731227</v>
       </c>
       <c r="R24">
-        <v>11253.9670363049</v>
+        <v>7005.365602858104</v>
       </c>
       <c r="S24">
-        <v>0.01699215561072543</v>
+        <v>0.01374580256222117</v>
       </c>
       <c r="T24">
-        <v>0.01699215561072543</v>
+        <v>0.01374580256222117</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>5.019171333333333</v>
+        <v>6.109858666666667</v>
       </c>
       <c r="H25">
-        <v>15.057514</v>
+        <v>18.329576</v>
       </c>
       <c r="I25">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="J25">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>87.63694660761513</v>
+        <v>118.6779028878116</v>
       </c>
       <c r="R25">
-        <v>788.7325194685361</v>
+        <v>1068.101125990304</v>
       </c>
       <c r="S25">
-        <v>0.001190892568177395</v>
+        <v>0.002095808845202711</v>
       </c>
       <c r="T25">
-        <v>0.001190892568177395</v>
+        <v>0.00209580884520271</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>5.019171333333333</v>
+        <v>6.109858666666667</v>
       </c>
       <c r="H26">
-        <v>15.057514</v>
+        <v>18.329576</v>
       </c>
       <c r="I26">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="J26">
-        <v>0.04384234929529272</v>
+        <v>0.05017050098777136</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>938.2391498331252</v>
+        <v>790.1474315322579</v>
       </c>
       <c r="R26">
-        <v>8444.152348498126</v>
+        <v>7111.326883790321</v>
       </c>
       <c r="S26">
-        <v>0.01274966864959506</v>
+        <v>0.01395371788449072</v>
       </c>
       <c r="T26">
-        <v>0.01274966864959505</v>
+        <v>0.01395371788449072</v>
       </c>
     </row>
   </sheetData>
